--- a/Datos/SEGREGADA.xlsx
+++ b/Datos/SEGREGADA.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Projecto_ABD\ABD\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ABD\ABD\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C84AEE8-C3B8-4E6E-A667-BD33E99171E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24FBC6B1-A1CD-42FE-9CB3-9BBC6E9A16C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">IBAN </t>
   </si>
@@ -50,9 +49,6 @@
   </si>
   <si>
     <t>ES32 1226 347 77987</t>
-  </si>
-  <si>
-    <t>ES32 5829 354  1000</t>
   </si>
   <si>
     <t>ES32 6784 345 0000</t>
@@ -64,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,21 +405,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40142060-CB4C-4446-A943-BF63B34368A4}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,59 +430,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
